--- a/natmiOut/OldD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H2">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I2">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J2">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N2">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O2">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P2">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q2">
-        <v>189.7747865464101</v>
+        <v>266.1425282586996</v>
       </c>
       <c r="R2">
-        <v>189.7747865464101</v>
+        <v>2395.282754328297</v>
       </c>
       <c r="S2">
-        <v>0.04003874940637192</v>
+        <v>0.04571901321482707</v>
       </c>
       <c r="T2">
-        <v>0.04003874940637192</v>
+        <v>0.05886327859773258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H3">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I3">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J3">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N3">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O3">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P3">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q3">
-        <v>335.7343593615917</v>
+        <v>440.5199173382712</v>
       </c>
       <c r="R3">
-        <v>335.7343593615917</v>
+        <v>3964.67925604444</v>
       </c>
       <c r="S3">
-        <v>0.07083335002619122</v>
+        <v>0.07567424888444003</v>
       </c>
       <c r="T3">
-        <v>0.07083335002619122</v>
+        <v>0.09743067668211036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H4">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I4">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J4">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N4">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O4">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P4">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q4">
-        <v>89.68685721899567</v>
+        <v>116.8458226971627</v>
       </c>
       <c r="R4">
-        <v>89.68685721899567</v>
+        <v>1051.612404274464</v>
       </c>
       <c r="S4">
-        <v>0.01892216382684877</v>
+        <v>0.02007223628234358</v>
       </c>
       <c r="T4">
-        <v>0.01892216382684877</v>
+        <v>0.02584302576294297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H5">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I5">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J5">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N5">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O5">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P5">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q5">
-        <v>106.0292575131291</v>
+        <v>130.9895619615583</v>
       </c>
       <c r="R5">
-        <v>106.0292575131291</v>
+        <v>1178.906057654024</v>
       </c>
       <c r="S5">
-        <v>0.02237008903326395</v>
+        <v>0.02250190359844954</v>
       </c>
       <c r="T5">
-        <v>0.02237008903326395</v>
+        <v>0.02897122504090482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.653229259955561</v>
+        <v>10.44675466666667</v>
       </c>
       <c r="H6">
-        <v>8.653229259955561</v>
+        <v>31.340264</v>
       </c>
       <c r="I6">
-        <v>0.198188284422673</v>
+        <v>0.2092639271807731</v>
       </c>
       <c r="J6">
-        <v>0.198188284422673</v>
+        <v>0.2499877559676775</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N6">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O6">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P6">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q6">
-        <v>218.143224388689</v>
+        <v>263.68311322918</v>
       </c>
       <c r="R6">
-        <v>218.143224388689</v>
+        <v>1582.09867937508</v>
       </c>
       <c r="S6">
-        <v>0.04602393212999718</v>
+        <v>0.04529652520071287</v>
       </c>
       <c r="T6">
-        <v>0.04602393212999718</v>
+        <v>0.03887954988398674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H7">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I7">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J7">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N7">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O7">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P7">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q7">
-        <v>239.8259254387418</v>
+        <v>321.5368349864315</v>
       </c>
       <c r="R7">
-        <v>239.8259254387418</v>
+        <v>2893.831514877884</v>
       </c>
       <c r="S7">
-        <v>0.05059855581734372</v>
+        <v>0.05523486570890729</v>
       </c>
       <c r="T7">
-        <v>0.05059855581734372</v>
+        <v>0.07111494890001978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H8">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I8">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J8">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N8">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O8">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P8">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q8">
-        <v>424.2808272941249</v>
+        <v>532.2087412942511</v>
       </c>
       <c r="R8">
-        <v>424.2808272941249</v>
+        <v>4789.878671648259</v>
       </c>
       <c r="S8">
-        <v>0.08951491413114165</v>
+        <v>0.0914249166996218</v>
       </c>
       <c r="T8">
-        <v>0.08951491413114165</v>
+        <v>0.117709678403974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H9">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I9">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J9">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N9">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O9">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P9">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q9">
-        <v>113.340839021193</v>
+        <v>141.1658492058507</v>
       </c>
       <c r="R9">
-        <v>113.340839021193</v>
+        <v>1270.492642852656</v>
       </c>
       <c r="S9">
-        <v>0.02391268900185378</v>
+        <v>0.02425002635824929</v>
       </c>
       <c r="T9">
-        <v>0.02391268900185378</v>
+        <v>0.03122193497092052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H10">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I10">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J10">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N10">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O10">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P10">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q10">
-        <v>133.993378516857</v>
+        <v>158.2534345222662</v>
       </c>
       <c r="R10">
-        <v>133.993378516857</v>
+        <v>1424.280910700396</v>
       </c>
       <c r="S10">
-        <v>0.02826996885193474</v>
+        <v>0.02718539916019137</v>
       </c>
       <c r="T10">
-        <v>0.02826996885193474</v>
+        <v>0.03500123060481858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9354290581427</v>
+        <v>12.62111866666667</v>
       </c>
       <c r="H11">
-        <v>10.9354290581427</v>
+        <v>37.863356</v>
       </c>
       <c r="I11">
-        <v>0.2504583964380344</v>
+        <v>0.252819649917553</v>
       </c>
       <c r="J11">
-        <v>0.2504583964380344</v>
+        <v>0.3020196447561928</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N11">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O11">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P11">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q11">
-        <v>275.6762456134514</v>
+        <v>318.56552284897</v>
       </c>
       <c r="R11">
-        <v>275.6762456134514</v>
+        <v>1911.39313709382</v>
       </c>
       <c r="S11">
-        <v>0.05816226863576054</v>
+        <v>0.0547244419905832</v>
       </c>
       <c r="T11">
-        <v>0.05816226863576054</v>
+        <v>0.04697185187645989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H12">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I12">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J12">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N12">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O12">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P12">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q12">
-        <v>527.9472434816828</v>
+        <v>26.37154715132156</v>
       </c>
       <c r="R12">
-        <v>527.9472434816828</v>
+        <v>237.343924361894</v>
       </c>
       <c r="S12">
-        <v>0.1113864900929738</v>
+        <v>0.004530208383437096</v>
       </c>
       <c r="T12">
-        <v>0.1113864900929738</v>
+        <v>0.005832648157278262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H13">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I13">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J13">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N13">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O13">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P13">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q13">
-        <v>934.0019967494151</v>
+        <v>43.65026456760111</v>
       </c>
       <c r="R13">
-        <v>934.0019967494151</v>
+        <v>392.85238110841</v>
       </c>
       <c r="S13">
-        <v>0.1970560608890763</v>
+        <v>0.007498414611350713</v>
       </c>
       <c r="T13">
-        <v>0.1970560608890763</v>
+        <v>0.00965421686236443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H14">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I14">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J14">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N14">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O14">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P14">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q14">
-        <v>249.5059006888907</v>
+        <v>11.57802604061067</v>
       </c>
       <c r="R14">
-        <v>249.5059006888907</v>
+        <v>104.202234365496</v>
       </c>
       <c r="S14">
-        <v>0.05264084030810146</v>
+        <v>0.001988918978923047</v>
       </c>
       <c r="T14">
-        <v>0.05264084030810146</v>
+        <v>0.002560735320654229</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>24.0730005189143</v>
+        <v>1.035148666666667</v>
       </c>
       <c r="H15">
-        <v>24.0730005189143</v>
+        <v>3.105446</v>
       </c>
       <c r="I15">
-        <v>0.5513533191392925</v>
+        <v>0.02073555684176186</v>
       </c>
       <c r="J15">
-        <v>0.5513533191392925</v>
+        <v>0.02477080208446235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N15">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O15">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P15">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q15">
-        <v>294.9699233031489</v>
+        <v>12.97950174367623</v>
       </c>
       <c r="R15">
-        <v>294.9699233031489</v>
+        <v>116.815515693086</v>
       </c>
       <c r="S15">
-        <v>0.06223285535701706</v>
+        <v>0.002229670002849712</v>
       </c>
       <c r="T15">
-        <v>0.06223285535701706</v>
+        <v>0.002870702522428583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.035148666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.105446</v>
+      </c>
+      <c r="I16">
+        <v>0.02073555684176186</v>
+      </c>
+      <c r="J16">
+        <v>0.02477080208446235</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.2406725</v>
+      </c>
+      <c r="N16">
+        <v>50.481345</v>
+      </c>
+      <c r="O16">
+        <v>0.2164564424024374</v>
+      </c>
+      <c r="P16">
+        <v>0.1555258165884481</v>
+      </c>
+      <c r="Q16">
+        <v>26.12784848414501</v>
+      </c>
+      <c r="R16">
+        <v>156.76709090487</v>
+      </c>
+      <c r="S16">
+        <v>0.004488344865201294</v>
+      </c>
+      <c r="T16">
+        <v>0.003852499221736839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J17">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.47609633333333</v>
+      </c>
+      <c r="N17">
+        <v>76.42828900000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2184753666375218</v>
+      </c>
+      <c r="P17">
+        <v>0.2354646465379024</v>
+      </c>
+      <c r="Q17">
+        <v>36.20948992375477</v>
+      </c>
+      <c r="R17">
+        <v>325.885409313793</v>
+      </c>
+      <c r="S17">
+        <v>0.006220208995373811</v>
+      </c>
+      <c r="T17">
+        <v>0.008008525759520725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H18">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J18">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>42.16811166666667</v>
+      </c>
+      <c r="N18">
+        <v>126.504335</v>
+      </c>
+      <c r="O18">
+        <v>0.3616210873222725</v>
+      </c>
+      <c r="P18">
+        <v>0.3897417947729719</v>
+      </c>
+      <c r="Q18">
+        <v>59.93405718521055</v>
+      </c>
+      <c r="R18">
+        <v>539.406514666895</v>
+      </c>
+      <c r="S18">
+        <v>0.01029570873319933</v>
+      </c>
+      <c r="T18">
+        <v>0.01325573604740175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H19">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J19">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.184892</v>
+      </c>
+      <c r="N19">
+        <v>33.554676</v>
+      </c>
+      <c r="O19">
+        <v>0.09591828153451469</v>
+      </c>
+      <c r="P19">
+        <v>0.1033771660652227</v>
+      </c>
+      <c r="Q19">
+        <v>15.89722494660133</v>
+      </c>
+      <c r="R19">
+        <v>143.075024519412</v>
+      </c>
+      <c r="S19">
+        <v>0.002730888002635434</v>
+      </c>
+      <c r="T19">
+        <v>0.003516021235257168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H20">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J20">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.53878033333334</v>
+      </c>
+      <c r="N20">
+        <v>37.61634100000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1075288221032535</v>
+      </c>
+      <c r="P20">
+        <v>0.1158905760354547</v>
+      </c>
+      <c r="Q20">
+        <v>17.82152313272411</v>
+      </c>
+      <c r="R20">
+        <v>160.393708194517</v>
+      </c>
+      <c r="S20">
+        <v>0.003061451534800795</v>
+      </c>
+      <c r="T20">
+        <v>0.003941622137810982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.421312333333333</v>
+      </c>
+      <c r="H21">
+        <v>4.263936999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.02847098549876299</v>
+      </c>
+      <c r="J21">
+        <v>0.03401158465728147</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.2406725</v>
+      </c>
+      <c r="N21">
+        <v>50.481345</v>
+      </c>
+      <c r="O21">
+        <v>0.2164564424024374</v>
+      </c>
+      <c r="P21">
+        <v>0.1555258165884481</v>
+      </c>
+      <c r="Q21">
+        <v>35.8748791258775</v>
+      </c>
+      <c r="R21">
+        <v>215.249274755265</v>
+      </c>
+      <c r="S21">
+        <v>0.006162728232753624</v>
+      </c>
+      <c r="T21">
+        <v>0.005289679477290834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>24.3970965</v>
+      </c>
+      <c r="H22">
+        <v>48.794193</v>
+      </c>
+      <c r="I22">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J22">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25.47609633333333</v>
+      </c>
+      <c r="N22">
+        <v>76.42828900000001</v>
+      </c>
+      <c r="O22">
+        <v>0.2184753666375218</v>
+      </c>
+      <c r="P22">
+        <v>0.2354646465379024</v>
+      </c>
+      <c r="Q22">
+        <v>621.5427806876295</v>
+      </c>
+      <c r="R22">
+        <v>3729.256684125777</v>
+      </c>
+      <c r="S22">
+        <v>0.1067710703349765</v>
+      </c>
+      <c r="T22">
+        <v>0.091645245123351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>24.3970965</v>
+      </c>
+      <c r="H23">
+        <v>48.794193</v>
+      </c>
+      <c r="I23">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J23">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>42.16811166666667</v>
+      </c>
+      <c r="N23">
+        <v>126.504335</v>
+      </c>
+      <c r="O23">
+        <v>0.3616210873222725</v>
+      </c>
+      <c r="P23">
+        <v>0.3897417947729719</v>
+      </c>
+      <c r="Q23">
+        <v>1028.779489554443</v>
+      </c>
+      <c r="R23">
+        <v>6172.676937326655</v>
+      </c>
+      <c r="S23">
+        <v>0.1767277983936607</v>
+      </c>
+      <c r="T23">
+        <v>0.1516914867771214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.0730005189143</v>
-      </c>
-      <c r="H16">
-        <v>24.0730005189143</v>
-      </c>
-      <c r="I16">
-        <v>0.5513533191392925</v>
-      </c>
-      <c r="J16">
-        <v>0.5513533191392925</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>25.2094585541825</v>
-      </c>
-      <c r="N16">
-        <v>25.2094585541825</v>
-      </c>
-      <c r="O16">
-        <v>0.2322232732578817</v>
-      </c>
-      <c r="P16">
-        <v>0.2322232732578817</v>
-      </c>
-      <c r="Q16">
-        <v>606.8673088563838</v>
-      </c>
-      <c r="R16">
-        <v>606.8673088563838</v>
-      </c>
-      <c r="S16">
-        <v>0.128037072492124</v>
-      </c>
-      <c r="T16">
-        <v>0.128037072492124</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24.3970965</v>
+      </c>
+      <c r="H24">
+        <v>48.794193</v>
+      </c>
+      <c r="I24">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J24">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.184892</v>
+      </c>
+      <c r="N24">
+        <v>33.554676</v>
+      </c>
+      <c r="O24">
+        <v>0.09591828153451469</v>
+      </c>
+      <c r="P24">
+        <v>0.1033771660652227</v>
+      </c>
+      <c r="Q24">
+        <v>272.878889466078</v>
+      </c>
+      <c r="R24">
+        <v>1637.273336796468</v>
+      </c>
+      <c r="S24">
+        <v>0.04687621191236335</v>
+      </c>
+      <c r="T24">
+        <v>0.04023544877544782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24.3970965</v>
+      </c>
+      <c r="H25">
+        <v>48.794193</v>
+      </c>
+      <c r="I25">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J25">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.53878033333334</v>
+      </c>
+      <c r="N25">
+        <v>37.61634100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1075288221032535</v>
+      </c>
+      <c r="P25">
+        <v>0.1158905760354547</v>
+      </c>
+      <c r="Q25">
+        <v>305.9098337846356</v>
+      </c>
+      <c r="R25">
+        <v>1835.459002707813</v>
+      </c>
+      <c r="S25">
+        <v>0.05255039780696205</v>
+      </c>
+      <c r="T25">
+        <v>0.04510579572949171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.3970965</v>
+      </c>
+      <c r="H26">
+        <v>48.794193</v>
+      </c>
+      <c r="I26">
+        <v>0.4887098805611491</v>
+      </c>
+      <c r="J26">
+        <v>0.3892102125343858</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.2406725</v>
+      </c>
+      <c r="N26">
+        <v>50.481345</v>
+      </c>
+      <c r="O26">
+        <v>0.2164564424024374</v>
+      </c>
+      <c r="P26">
+        <v>0.1555258165884481</v>
+      </c>
+      <c r="Q26">
+        <v>615.7991227073964</v>
+      </c>
+      <c r="R26">
+        <v>2463.196490829585</v>
+      </c>
+      <c r="S26">
+        <v>0.1057844021131865</v>
+      </c>
+      <c r="T26">
+        <v>0.06053223612897379</v>
       </c>
     </row>
   </sheetData>
